--- a/sorting/人身/PA11+12.xlsx
+++ b/sorting/人身/PA11+12.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lch/Desktop/lawbroker_project/sorting/人身/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC4A9FA-1EC4-494E-9BEC-6CC02CD8F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E00359-C4FE-7140-8D02-F0796FAF0684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{B02BDEB1-E1FE-6647-ADFA-D8E64CAB614E}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{B02BDEB1-E1FE-6647-ADFA-D8E64CAB614E}"/>
   </bookViews>
   <sheets>
     <sheet name="PA11" sheetId="1" r:id="rId1"/>
-    <sheet name="PA12" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="668">
   <si>
     <t>編號</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2848,1379 +2847,12 @@
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
-  <si>
-    <t>PA12_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保險的主要功能是？</t>
-  </si>
-  <si>
-    <t>保障自己現在的生活</t>
-  </si>
-  <si>
-    <t>避免意外的發生</t>
-  </si>
-  <si>
-    <t>定期儲蓄一筆錢</t>
-  </si>
-  <si>
-    <t>*分散危險消化損失</t>
-  </si>
-  <si>
-    <t>正確答案為第４個選項。
-出處：2.1 人身保險的意義、起源與發展
-人身保險就是：千千萬萬的人，大家出極少數的錢，交由壽險公司彙集成為龐大財力，作妥善的管理與運用，一旦有人發生不幸或約定的情況時，根據公平合理制度，給予所需的補償，保障他本人或他的眷屬安樂的生活。
-也就是一種用大多數人的力量來「分散風險消化損失」的社會互助經濟保障制度。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12_2</t>
-  </si>
-  <si>
-    <t>保險是一種：</t>
-  </si>
-  <si>
-    <t>保險公司訂出來的制度</t>
-  </si>
-  <si>
-    <t>*多數人合作以分散危險消化損失的制度</t>
-  </si>
-  <si>
-    <t>政府規定的制度</t>
-  </si>
-  <si>
-    <t>保護貧窮人的制度</t>
-  </si>
-  <si>
-    <t>正確答案為第２個選項。
-出處：2.1 人身保險的意義、起源與發展
-人身保險就是：千千萬萬的人，大家出極少數的錢，交由壽險公司彙集成為龐大財力，作妥善的管理與運用，一旦有人發生不幸或約定的情況時，根據公平合理制度，給予所需的補償，保障他本人或他的眷屬安樂的生活。
-也就是一種用大多數人的力量來「分散風險消化損失」的社會互助經濟保障制度。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12_3</t>
-  </si>
-  <si>
-    <t>就應付緊急事故而言，人壽保險優於儲蓄之主要原因是下列何者？</t>
-  </si>
-  <si>
-    <t>保險公司的營業時間較長</t>
-  </si>
-  <si>
-    <t>*個人儲蓄很難在短期間內聚集可觀的基金</t>
-  </si>
-  <si>
-    <t>壽險利率較優惠</t>
-  </si>
-  <si>
-    <t>保險公司資本較雄厚</t>
-  </si>
-  <si>
-    <t>PA12_4</t>
-  </si>
-  <si>
-    <t>下列有關保險之陳述，列何者正確？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是一種透過多數人合作以避免風險的經濟保障制度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>為風險避免方法之一種</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*投保人身保險的人可以提升信用和償債能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第３個選項。
-出處：2.1 人身保險的意義、起源與發展
-人身保險就是：千千萬萬的人，大家出極少數的錢，交由壽險公司彙集成為龐大財力，作妥善的管理與運用，一旦有人發生不幸或約定的情況時，根據公平合理制度，給予所需的補償，保障他本人或他的眷屬安樂的生活。
-也就是一種用大多數人的力量來「分散風險消化損失」的社會互助經濟保障制度。
-人身保險對個人的功能：…（三）保證信用，有利投資。…</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12_5</t>
-  </si>
-  <si>
-    <t>早期人壽保險制度中，下列何者專以社員及配偶之死亡、年老、疾病等為給付重心？</t>
-  </si>
-  <si>
-    <t>*英國友愛社</t>
-  </si>
-  <si>
-    <t>法國相互救濟會</t>
-  </si>
-  <si>
-    <t>德國救濟金庫</t>
-  </si>
-  <si>
-    <t>歐洲基爾特</t>
-  </si>
-  <si>
-    <t>正確答案為第１個選項。
-出處：2.1 人身保險的意義、起源與發展
-英國友愛社，專以社員及配偶之死亡、年老、疾病等給予金錢救濟為工作重心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12_6</t>
-  </si>
-  <si>
-    <t>就人類保險發展史來看，早期人壽保險制度不為大多數人接受的主要原因是下列何者？</t>
-  </si>
-  <si>
-    <t>保障範圍太小</t>
-  </si>
-  <si>
-    <t>保險費太貴</t>
-  </si>
-  <si>
-    <t>經營者推廣不力</t>
-  </si>
-  <si>
-    <t>*缺乏科學計算基礎</t>
-  </si>
-  <si>
-    <t>正確答案為第４個選項。
-出處：2.1 人身保險的意義、起源與發展
-早期的人壽保險，因為缺乏科學的計算基準，並不為大多數人所重視。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12_7</t>
-  </si>
-  <si>
-    <t>最早的人壽保險雛形，像起源於公元一世紀時___的宗教團體。</t>
-  </si>
-  <si>
-    <t>*羅馬</t>
-  </si>
-  <si>
-    <t>希臘</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>巴比倫</t>
-  </si>
-  <si>
-    <t>正確答案為第１個選項。
-出處：2.1 人身保險的意義、起源與發展
-人身保險之分類中，以人壽保險之發展為主，最早的人壽保險雛形，可以溯及到公元一世紀時羅馬的Collegia Tenuiornm組織，那是一個宗教團體。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12_8</t>
-  </si>
-  <si>
-    <t>首先根據生命表計算合理的保險費，促使現代人壽保險制度的建立始於何時？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中世紀歐洲的基爾特組織</t>
-  </si>
-  <si>
-    <t>*英國衡平保險社</t>
-  </si>
-  <si>
-    <t>正確答案為第４個選項。
-出處：2.1 人身保險的意義、起源與發展
-公元1762年英國倫敦的「衡平保險社」首先根據生命表，按年齡及身體健康狀況計算合理的保險費。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">題目內容修訂
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12_9</t>
-  </si>
-  <si>
-    <t>現代保險制度的建立，要從下列何表運用於計算人壽保險的保費開始？</t>
-  </si>
-  <si>
-    <t>*生命表</t>
-  </si>
-  <si>
-    <t>傷亡表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生存表</t>
-  </si>
-  <si>
-    <t>年金表</t>
-  </si>
-  <si>
-    <t>正確答案為第１個選項。
-出處：2.1 人身保險的意義、起源與發展
-現代保險制度的建立，要從「生命表」運用於計算人壽保險的保費開始。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12_10</t>
-  </si>
-  <si>
-    <t>最早使用生命表計算純保費是在___。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*十八世紀</t>
-  </si>
-  <si>
-    <t>十七世紀</t>
-  </si>
-  <si>
-    <t>十九世紀</t>
-  </si>
-  <si>
-    <t>十六世紀</t>
-  </si>
-  <si>
-    <t>正確答案為第１個選項。
-出處：2.1 人身保險的意義、起源與發展
-公元1762年英國倫敦的「衡平保險社」首先根據生命表，按年齡及身體健康狀況計算合理的保險費。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12_11</t>
-  </si>
-  <si>
-    <t>人壽保險目前成為自由經濟國家的一種保障制度，是經過了___多年的發展。</t>
-  </si>
-  <si>
-    <t>五十</t>
-  </si>
-  <si>
-    <t>一百</t>
-  </si>
-  <si>
-    <t>*二百</t>
-  </si>
-  <si>
-    <t>三百</t>
-  </si>
-  <si>
-    <t>正確答案為第３個選項。
-出處：2.1 人身保險的意義、起源與發展
-人身保險經過200多年來的發展，目前已經成為自由經濟國家的一種社會保障經濟制度，和民主主義、勞工福利合為現代生活的三重保障。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12_12</t>
-  </si>
-  <si>
-    <t>現在的保險有了新一代的轉變，以壽險商品為軸心，結合證券投資與資產管理的特色，發展成為一種兼具何種性質的工具？</t>
-  </si>
-  <si>
-    <t>健全經營</t>
-  </si>
-  <si>
-    <t>發展股市</t>
-  </si>
-  <si>
-    <t>*理財投資及保險保障</t>
-  </si>
-  <si>
-    <t>教育</t>
-  </si>
-  <si>
-    <t>正確答案為第３個選項。
-出處：2.1 人身保險的意義、起源與發展
-現在保險有了新一代的演變，以壽險商品為軸心，結合了證券投資與資產管理的特色，發展成為一種兼具保險保障與理財投資功能的工具。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12_13</t>
-  </si>
-  <si>
-    <t>現在保險的新演變是以列何者為軸心，結合證券投資與資產管理特色？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>年金保險</t>
-  </si>
-  <si>
-    <t>*人身保險</t>
-  </si>
-  <si>
-    <t>傷害保險</t>
-  </si>
-  <si>
-    <t>健康保險</t>
-  </si>
-  <si>
-    <t>正確答案為第２個選項。
-出處：2.1 人身保險的意義、起源與發展
-現在保險有了新一代的演變，以壽險商品為軸心，結合了證券投資與資產管理的特色，發展成為一種兼具保險保障與理財投資功能的工具。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12_14</t>
-  </si>
-  <si>
-    <t>現代生活的三重保障為下列何者？</t>
-  </si>
-  <si>
-    <t>*人壽保險、民主主義、勞工福利</t>
-  </si>
-  <si>
-    <t>人壽保險、民生主義、健保福利</t>
-  </si>
-  <si>
-    <t>民族主義、民生主義、勞工福利</t>
-  </si>
-  <si>
-    <t>人壽保險、民生主義、勞工福利</t>
-  </si>
-  <si>
-    <t>正確答案為第１個選項。
-出處：2.2 人身保險的功能
-人身保險經過200多年來的發展，目前已經成為自由經濟國家的一種社會保障經濟制度，和民主主義、勞工福利合為現代生活的三重保障。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12_15</t>
-  </si>
-  <si>
-    <t>「養兒防老」的觀念隨著大家庭制度的瓦解應有所修正，而人身保險即可提供這種安全可靠的準備，尤其是下列何者可提供「定期性持續有保險給付」的一種保障？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>定期人壽保險</t>
-  </si>
-  <si>
-    <t>*年金保險</t>
-  </si>
-  <si>
-    <t>正確答案為第３個選項。
-出處：2.2 人身保險的功能
-人身保險對個人的功能：（一）後顧無憂，晚景可恃。…年金保險對於被保險人遭遇老年、殘障或死亡等事故時，提供「定期性持續有保險給付」的一種保障</t>
-  </si>
-  <si>
-    <t>PA12_16</t>
-  </si>
-  <si>
-    <t>一個投保人壽保險的人，不論在任何意外事故發生時，都有經濟上的保障，這也就是人身保險功能中的哪些功能？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*保證信用，有利投資</t>
-  </si>
-  <si>
-    <t>安定就業，穩定發展</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>後故無憂，晚景可恃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第１個選項。
-出處：2.2 人身保險的功能
-人身保險對個人的功能：…（三）保證信用，有利投資。…一個投保人壽保險的人不論在任何意外事故發生時，都有經濟上的保障，也就確定了他的信用和償還能力，在金錢週轉上也必然增加了許多便利。</t>
-  </si>
-  <si>
-    <t>PA12_17</t>
-  </si>
-  <si>
-    <t>人身保險對個人的功能有那些？A.後顧無憂、晚景可恃 B.安定就業、穩定發展 C.保證信用、有利投資 D.享受優惠、稅捐減免。</t>
-  </si>
-  <si>
-    <t>*ABCD</t>
-  </si>
-  <si>
-    <t>正確答案為第２個選項。
-出處：2.2 人身保險的功能
-人身保險對個人的功能：
-1.後顧無憂，晚景可恃。
-2.安定就業，穩定發展。
-3.保證信用，有利投資。
-4.享受優惠，稅捐減免。
-5.保險理財，一舉兩得。</t>
-  </si>
-  <si>
-    <t>PA12_18</t>
-  </si>
-  <si>
-    <t>下列何者可使我們晚年生活有所憑恃？</t>
-  </si>
-  <si>
-    <t>*滿期保險金及按期給付的年金</t>
-  </si>
-  <si>
-    <t>死亡保險金</t>
-  </si>
-  <si>
-    <t>殘廢保險金</t>
-  </si>
-  <si>
-    <t>保單紅利</t>
-  </si>
-  <si>
-    <t>正確答案為第１個選項。
-出處：2.2 人身保險的功能
-人身保險對個人的功能：
-（一）後顧無憂，晚景可恃。…滿期保險金及年金保險按期給付的年金，就是提供這種安全可靠的準備，以保障老年生活不致陷於淒苦無依的最好方法。
-年金保險對於被保險人遭遇老年、殘障或死亡等事故時，提供「定期性持續有保險給付」的一種保障。</t>
-  </si>
-  <si>
-    <t>PA12_19</t>
-  </si>
-  <si>
-    <t>有關保險費所累積的「責任準備金」下列敘述何者錯誤？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>對保戶而言既是儲蓄又是投資</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*保戶要承擔投資的風險沒有確保一定利潤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>透過保險公司專家的經營運作，獲利較一般利息優厚</t>
-  </si>
-  <si>
-    <t>保險公司可用來投資運用孳息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第２個選項。
-出處：2.2 人身保險的功能
-保險費中的責任準備金部分，除了是一種儲蓄以外，也是一種有利的投資，透過保險公司經營專家的運作，沒有個人投資所要冒的風險，而能確保一定的利潤。</t>
-  </si>
-  <si>
-    <t>PA12_20</t>
-  </si>
-  <si>
-    <t>投保人壽保險的人，不論在任何意外事故發生時都有經濟上的保障，可以確定：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>身體健康良好</t>
-  </si>
-  <si>
-    <t>投資沒有風險</t>
-  </si>
-  <si>
-    <t>*信用和償債能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第３個選項。
-出處：2.2 人身保險的功能
-人身保險對個人的功能：…（三）保證信用，有利投資。…一個投保人壽保險的人不論在任何意外事故發生時，都有經濟上的保障，也就確定了他的信用和償還能力，在金錢週轉上也必然增加了許多便利。</t>
-  </si>
-  <si>
-    <t>PA12_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">投資型保險商品的特性有？ </t>
-  </si>
-  <si>
-    <t>保險公司可脫離利率風險</t>
-  </si>
-  <si>
-    <t>採取專設帳簿盈虧自負</t>
-  </si>
-  <si>
-    <t>保戶有投資獲利之機會</t>
-  </si>
-  <si>
-    <t>正確答案為第４個選項。
-出處：2.2 人身保險的功能
-採取專設帳簿盈虧自負之投資型保險商品，強調投資及保險兼顧，未來的投資報酬率完全屬於保戶的，除保險公司可脫離利率風險，同時也讓保戶有投資獲利的機會。</t>
-  </si>
-  <si>
-    <t>PA12_22</t>
-  </si>
-  <si>
-    <t>依現行的「所得基本稅額條例」第十二、十三條規定若要保人與受益人非屬同一人之人壽保險及年金保險，由受益人受領之保險給付，個人之基本所得在新台幣多少以下之部份得免扣繳所得稅？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,000萬元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*600萬元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>800萬元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>500萬元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第２個選項。
-出處：2.2 人身保險的功能
-所得基本稅額條例第12條規定：基本所得在新台幣600萬元以上之個人，若投保受益人與要保人非屬同一人之人壽保險及年金保險，由受益人受領之保險給付（若為死亡給付每一申報戶全年合計數在新台幣3,300萬以下之部分則不計入）部分，應依第13條規定扣繳所得稅。</t>
-  </si>
-  <si>
-    <t>PA12_23</t>
-  </si>
-  <si>
-    <t>當被保險人遭遇老年、失能或死亡時提供定期性繼續保險給付保障的是下列何者？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>萬能壽險</t>
-  </si>
-  <si>
-    <t>正確答案為第２個選項。
-出處：2.2 人身保險的功能
-人身保險對個人的功能：（一）後顧無憂，晚景可恃。…滿期保險金及年金保險按期給付的年金，就是提供這種安全可靠的準備，以保障老年生活不致陷於淒苦無依的最好方法。
-年金保險對於被保險人遭遇老年、失能或死亡等事故時，提供「定期性持續有保險給付」的一種保障。</t>
-  </si>
-  <si>
-    <t>PA12_24</t>
-  </si>
-  <si>
-    <t>下列何者是投保人身保險之目的？A.幫助政府推行社會福利。B.彌補保險公司之營業收入。C.保障人民生活安定。D.安定社會經濟。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ACD</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>正確答案為第３個選項。
-出處：2.2 人身保險的功能
-政府可利用保險來提升社會福利，個人可以利用保險作為經濟生活保障，所以保險不僅是一種經濟制度，也是一種社會安全保障制度。</t>
-  </si>
-  <si>
-    <t>PA12_25</t>
-  </si>
-  <si>
-    <t>何者為投保人身保險勝於一般儲蓄的原因？</t>
-  </si>
-  <si>
-    <t>儲蓄的人難免容易有始無終</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般儲蓄沒有強制性，準備的錢容易挪作他用</t>
-  </si>
-  <si>
-    <t>投保者須按期繳費無形中含有強迫儲蓄性質</t>
-  </si>
-  <si>
-    <t>正確答案為第４個選項。
-出處：2.2 人身保險的功能
-投保人身保險以後，不按期繳納保險費，則保險契約將會停效或終止，使投保者將保險費繳納列為個人預算的一部分，按期繳付，無形中含有一種強迫儲蓄性質，日久成習，可以養成節儉儲蓄的美德。</t>
-  </si>
-  <si>
-    <t>PA12_26</t>
-  </si>
-  <si>
-    <t>人壽保險的社會功能中，有保障家庭經濟的穩定作用，為促進教育提高素質，對一般家庭而言，下列何者費用的支出在未來是一筆金額大又省不得的支出？</t>
-  </si>
-  <si>
-    <t>應急費用</t>
-  </si>
-  <si>
-    <t>養老費用</t>
-  </si>
-  <si>
-    <t>儲蓄費用</t>
-  </si>
-  <si>
-    <t>*子女教育費用</t>
-  </si>
-  <si>
-    <t>正確答案為第４個選項。
-出處：2.2 人身保險的功能
-人壽保險的社會功能中，有保障家庭經濟的穩定作用，為促進教育提高素質，對一般家庭而言，子女的教育費用在未來是一筆金額大又省不得的支出。</t>
-  </si>
-  <si>
-    <t>PA12_27</t>
-  </si>
-  <si>
-    <t>下列何者為非？</t>
-  </si>
-  <si>
-    <t>微利時代來臨，不斷創新壽險商品，提供大眾在投資理財工具上多了一項新選擇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*市場利率走低，為壽險公司帶來了經營上的利潤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>有最低保證收益設計的商品，讓大眾降低了投資風險的不確定性</t>
-  </si>
-  <si>
-    <t>壽險結合證券投資，達到金融市場進一步整合的功能</t>
-  </si>
-  <si>
-    <t>正確答案為第２個選項。
-出處：2.2 人身保險的功能
-市場利率走低，為壽險公司帶來了經營上的風險，需尋求更穩健的方式，來降低壽險公司的經營風險。</t>
-  </si>
-  <si>
-    <t>PA12_28</t>
-  </si>
-  <si>
-    <t>何種特色使投保人壽保險在無形中含有一種強迫儲蓄的性質？</t>
-  </si>
-  <si>
-    <t>不交保險費保險公司可以請求法院強制執行</t>
-  </si>
-  <si>
-    <t>*不按期繳納保費則保險契約將會停效或終止</t>
-  </si>
-  <si>
-    <t>收費人員會向你強制收取</t>
-  </si>
-  <si>
-    <t>不敢將錢移挪別用</t>
-  </si>
-  <si>
-    <t>正確答案為第２個選項。
-出處：2.2 人身保險的功能
-投保人身保險以後，不按期繳納保險費，則保險契約將會停效或終止，使投保者將保險費繳納列為個人預算的一部分，按期繳付，無形中含有一種強迫儲蓄性質，日久成習，可以養成節儉儲蓄的美德。</t>
-  </si>
-  <si>
-    <t>PA12_29</t>
-  </si>
-  <si>
-    <t>人身保險對國家的功能有哪些？A.形成資本，以增國富；B.穩定經濟，安定政治；C.大眾理財，豐富多元；D.健全經營，整合金融。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第１個選項。
-出處：2.2 人身保險的功能
-人身保險對國家的功能：
-1.形成資本，以增國富。
-2.穩定經濟，安定政治。
-3.透過再保，拓展外交。
-4.健全經營，整合金融。
-大眾理財，豐富多元為人身保險對社會的功能。</t>
-  </si>
-  <si>
-    <t>PA12_30</t>
-  </si>
-  <si>
-    <t>人身保險對社會的功能，下列何者為非？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>互助共濟、社會安寧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*透過再保、拓展外交</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼓勵儲蓄、平均財富</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大眾理財、豐富多元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第２個選項。
-出處：2.2 人身保險的功能
-人身保險對社會的功能：
-1.互助共濟、社會安寧。
-2.鼓勵儲蓄、平均財富。
-3.促進教育、提高素質。
-4.大眾理財、豐富多元。
-透過再保、拓展外交為人身保險對國家的功能。</t>
-  </si>
-  <si>
-    <t>PA12_31</t>
-  </si>
-  <si>
-    <t>社會人口愈來愈老化，已成為人口發展的必然趨勢，為解決此項嚴重社會問題其方法有？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>投保人壽保險</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>提早以年金保險作退休規劃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第３個選項。
-出處：2.2 人身保險的功能
-投保人壽保險及提早以年金保險作退休規劃，都有助於解決社會人口老化帶來的問題。
-</t>
-  </si>
-  <si>
-    <t>PA12_32</t>
-  </si>
-  <si>
-    <t>面對微利時代的來臨，社會大眾無不擔心財富縮水，人壽保險公司針對這些問題提供了哪些功能？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不斷創新壽險商品，提供投資理財工具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供保障與降低投資風險不確定之商品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分商品有最低保證收益設計</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第４個選項。
-出處：2.2 人身保險的功能
-微利時代來臨，社會大眾擔心財富縮水，造就人人理財的風氣；而不斷創新、豐富多元的壽險商品，也提供社會大眾在投資理財上的多重選擇。
-</t>
-  </si>
-  <si>
-    <t>PA12_33</t>
-  </si>
-  <si>
-    <t>人身保險可以增加儲蓄的原因是？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>減少消費</t>
-  </si>
-  <si>
-    <t>增加所得</t>
-  </si>
-  <si>
-    <t>*保費繳納具強制性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以節稅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第３個選項。
-出處：2.2 人身保險的功能
-人身保險勝於儲蓄，因為一般儲蓄沒有強制性質，但投保人身保險以後，若不按期繳納保險費，則保險契約將會停效或終止，無形中含有一種強迫儲蓄的性質，日久成習，可以養成節儉儲蓄的美德。人人既有儲蓄，則生活不慮匱乏，社會財富自然可以漸趨於平均化。
-</t>
-  </si>
-  <si>
-    <t>PA12_34</t>
-  </si>
-  <si>
-    <t>保險業之所以能形成資本、調整金融，其主因是？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>其稅賦依法受政府之保護及優惠</t>
-  </si>
-  <si>
-    <t>*為廣大要保人收集及保管保費</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保險公司之資本提供者均由財團組成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第２個選項。
-出處：2.2 人身保險的功能
-壽險公司所收取的保險費，可匯成龐大的資金，該資金可以投資運用孳息。一方面為要保人提供分配紅利的來源，另一方面也為國家各項經濟建設提供長期而大量的資金，具有形成資本以增國富的積極功能。
-</t>
-  </si>
-  <si>
-    <t>PA12_35</t>
-  </si>
-  <si>
-    <t>生命表係利用下列何種原理計算統計而來？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保險費三要素</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保險利益</t>
-  </si>
-  <si>
-    <t>收支相等原則</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*大數法則</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第４個選項。
-出處：2.1 人身保險的意義、起源與發展
-雖然我們不能預定某一個人在某一年內一定會身故的死亡機率，但是我們可以採取大樣本（通常採用10萬人為樣本），來統計過去死亡的機率，得出一個預定的死亡率，列表作為人壽保險計算純保費的根據。亦即，生命表係利用大數法則，統計出來的死亡率表。
-</t>
-  </si>
-  <si>
-    <t>PA12_36</t>
-  </si>
-  <si>
-    <t>高齡化社會的來臨是目前社會人口發展的趨勢，購買何種保險解決此項嚴重的社會問題？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>定期保險</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第２個選項。
-出處：2.2 人身保險的功能
-提早以年金保險作退休規劃。是解決此項嚴重社會問題的主要方法之一。
-</t>
-  </si>
-  <si>
-    <t>PA12_37</t>
-  </si>
-  <si>
-    <t>下列敘述何者為真？A.人身保險制度有助於解決社會人口老年化帶來的問題；B.人身保險可形成資本，以增國富；C.人身保險可穩定經濟，安定政治；D.人身保險可促進教育，提高素質。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第１個選項。
-出處：2.2 人身保險的功能
-A.為對個人的功能。（後顧無憂、晚景可期）
-B.C 為對國家的功能。
-D. 為對社會的功能。
-</t>
-  </si>
-  <si>
-    <t>PA12_38</t>
-  </si>
-  <si>
-    <t>早期人壽保險組織，如中世紀歐洲之基爾特、英國的友愛社、德國的濟金庫及法國的相互救濟會等，並不為大多數人所重視之原因？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沒有保險法規範</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府當局不鼓勵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保險公司未開放民營</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*缺乏科學的計算基礎</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第４個選項。
-出處：2.1 人身保險的意義、起源與發展
-早期的人壽保險，因為缺乏科學的計算基準，所謂的科學計算指的就是壽險業的經驗生命表，所以並不為大多數人所重視。</t>
-  </si>
-  <si>
-    <t>PA12_39</t>
-  </si>
-  <si>
-    <t>人身保險的意義就是___，大家出極少數的錢，交由壽險公司彙集成為龐大的財力，作妥善的管理和運用，在這些人之中，一旦有人發生不幸或約定事故的時候，根據公平合理的制度，給予他所需要的補償，保障他本人或他的眷屬安樂的生活。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>少數的社會熱心人士</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*千千萬萬的人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>許多窮苦的人們</t>
-  </si>
-  <si>
-    <t>保險公司的員工</t>
-  </si>
-  <si>
-    <t>正確答案為第２個選項。
-出處：2.1 人身保險的意義、起源與發展
-人身保險就是：千千萬萬的人，大家出極少數的錢，交由壽險公司彙集成為龐大財力，作妥善的管理與運用，一旦有人發生不幸或約定的情況時，根據公平合理制度，給予所需的補償，保障他本人或他的眷屬安樂的生活。
-也就是一種用大多數人的力量來「分散風險消化損失」的社會互助經濟保障制度。</t>
-  </si>
-  <si>
-    <t>PA12_40</t>
-  </si>
-  <si>
-    <t>人身保險對國家有哪些功能？A.透過再保、拓展外交；B.互助共濟、社會安寧；C.健全經營、整合金融；D.形成資本、以增國富。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第１個選項。
-出處：2.2 人身保險的功能
-人身保險對國家的功能：
-1.形成資本，以增國富。
-2.穩定經濟，安定政治。
-3.透過再保，拓展外交。
-4.健全經營，整合金融。
-互助共濟、社會安寧為人身保險對社會的功能。</t>
-  </si>
-  <si>
-    <t>PA12_41</t>
-  </si>
-  <si>
-    <t>農業社會轉變為服務業，國民對壽險的需要？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不變</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不一定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*增加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>減少</t>
-  </si>
-  <si>
-    <t>正確答案為第３個選項。
-出處：2.2 人身保險的功能
-由於我們的社會型態已由農業轉變為服務業型態，傳統的大家庭制度逐漸瓦解，替代的是小家庭制度的產生。因此為了晚年的生活能有所憑恃，我們必須提早準備，而人身保險的「滿期保險金」以及年金保險按期給付的年金，就是提供這種安全可靠的準備，以保障老年生活不致陷於淒苦無依的最好辦法。</t>
-  </si>
-  <si>
-    <t>PA12_42</t>
-  </si>
-  <si>
-    <t>養兒防老的觀念必須修正，因為我們社會：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已由農業型態逐漸轉變為服務業型態</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小家庭制度興起</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳統大家庭制度逐漸瓦解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第４個選項。
-出處：2.2 人身保險的功能
-由於我們的社會型態已由農業轉變為服務業型態，傳統的大家庭制度逐漸瓦解，替代的是小家庭制度的產生。因此，所謂「養兒防老」的觀念也必須有所修正。</t>
-  </si>
-  <si>
-    <t>PA12_43</t>
-  </si>
-  <si>
-    <t>壽險公司透過再保可以：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拓展外交</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分散風險</t>
-  </si>
-  <si>
-    <t>減少損失</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第４個選項。
-出處：2.2 人身保險的功能
-壽臉公司為了分散風險，往往將所承受保險的一部份，向國外的再保險公司再保，同時也接受國外保險公司的分保。
-這種國際間的往來，是最好的實體外交。
-透過再保方式，一方面可以將損失由更多的保戶來分攤，另一方面也促進了國際間的共同了解，提高國家在國際政治上的地位。
-</t>
-  </si>
-  <si>
-    <t>PA12_44</t>
-  </si>
-  <si>
-    <t>人身保險對社會的功能有：A.穩定經濟，安定政治；B.鼓勵儲蓄，平均財富；C.大眾理財，豐富多元；D.健全經營，整合金融。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第２個選項。
-出處：2.2 人身保險的功能
-人身保險對社會的功能：
-1.互助共濟、社會安寧。
-2.鼓勵儲蓄、平均財富。
-3.促進教育、提高素質。
-4.大眾理財、豐富多元。
-透過再保、拓展外交為人身保險對國家的功能。
-「穩定經濟，安定政治」、「健全經營，整合金融」是人身保險對國家的功能。
-</t>
-  </si>
-  <si>
-    <t>PA12_45</t>
-  </si>
-  <si>
-    <t>人生保險的觀念萌芽於：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*人們謀求經濟生活安定的需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府社會福利措施</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保險公司為獲取利益而鼓吹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第１個選項。
-出處：2.1 人身保險的意義、起源與發展
-人生中有許多事情是不可避免的：生、老、病、死和意外事故等等，我們既然不能絕對防止這些事故的發生，但希望這些事故造成的損失達到最小，起碼不要因為事故的發生而使生活陷於困境。
-也就是說，在萬一發生這些不幸事故時，能夠有一筆相當額度的金錢給他本人或遺屬，來保障往後的生活。這就是人身保險在人類進化過程中。逐漸葫芽起來的概念，逐漸孕育形成的思想。
-</t>
-  </si>
-  <si>
-    <t>PA12_46</t>
-  </si>
-  <si>
-    <t>人身保險是一種用大多數人的力量來___的社會互助經濟保障制度。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>預防危險</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>避免危險</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻隔危險</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*消化損失</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第４個選項。
-出處：2.1 人身保險的意義、起源與發展
-人身保險就是：千千萬萬的人，大家出極少數的錢，交由壽險公司彙集成為龐大財力，作妥善的管理與運用，一旦有人發生不幸或約定的情況時，根據公平合理制度，給予所需的補償，保障他本人或他的眷屬安樂的生活。
-也就是一種用大多數人的力量來「分散風險消化損失」的社會互助經濟保障制度。
-</t>
-  </si>
-  <si>
-    <t>PA12_47</t>
-  </si>
-  <si>
-    <t>人壽保險公司將所承受保險分出一部份向再保公司再保，是為了下列何者？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>將不良的契約轉給再保公司承受</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>再保佣金</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司間交際</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*分散危險</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第４個選項。
-出處：2.2 人身保險的功能
-壽臉公司為了分散風險，往往將所承受保險的一部份，向國外的再保險公司再保，同時也接受國外保險公司的分保。這種國際間的往來，是最好的實體外交。透過再保方式，一方面可以將損失由更多的保戶來分攤，另一方面也促進了國際間的共同了解，提高國家在國際政治上的地位。
-</t>
-  </si>
-  <si>
-    <t>PA12_48</t>
-  </si>
-  <si>
-    <t>投保人身保險的人，不論在任何意外事故發生時都有經濟上的保障，因此也就確定此人的？A.身體健良好B.投資沒有風險C.信用和償債能力。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第３個選項。
-出處：2.2 人身保險的功能
-一個投保人壽保險的人，既然不論在任何意外事故發生時都有經濟上的保障，也就確定了他的信用和償還能力，在金錢週轉上也必然增加了許多便利。
-</t>
-  </si>
-  <si>
-    <t>PA12_49</t>
-  </si>
-  <si>
-    <t>就人身保險的功能而言，人身保險係：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">一種經濟制度 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 一種社會安全保障制度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一種鼓勵儲蓄的制度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*以上三者兼具的制度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第４個選項。
-出處：2.2 人身保險的功能
-政府可利用保險來提升社會福利，個人可以利用保險作為經濟生活保障，所以保險不僅是一種經濟制度，也是一種社會安全保障制度。
-</t>
-  </si>
-  <si>
-    <t>PA12_50</t>
-  </si>
-  <si>
-    <t>早期人壽保險因為缺乏科學計算基準，並不為大多數人所重視。在公平合理的保費制度下，下列何者為純保險費計算的根據？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈餘預估原則</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">*大數法則 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 量出為入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第３個選項。
-出處：2.1 人身保險的意義、起源與發展
-現代人壽保險制度的建立，要從「生命表」運用於計算人壽保險保費開始，所謂生命表就是利用大數法則（通常採用10萬人為統計對象）統計出來的死亡率表，以這麼大的人數來統計過去死亡的機率，得出一個預定死亡率，列表作為人壽保險計算純保費的依據。
-</t>
-  </si>
-  <si>
-    <t>PA12_51</t>
-  </si>
-  <si>
-    <t>人身保險的意義就是？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*投保人壽保險的人可以確定他的信用和償還能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第３個選項。
-出處：2.1 人身保險的意義、起源與發展
-人身保險就是：千千萬萬的人，大家出極少數的錢，交由壽險公司彙集成為龐大財力，作妥善的管理與運用，一旦有人發生不幸或約定的情況時，根據公平合理制度，給予所需的補償，保障他本人或他的眷屬安樂的生活。
-也就是一種用大多數人的力量來「分散風險消化損失」的社會互助經濟保障制度。
-</t>
-  </si>
-  <si>
-    <t>PA12_52</t>
-  </si>
-  <si>
-    <t>要發揮保險的力量，使之更大更有效的方法是？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*參加人身保險</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>參加民間合會</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>平日儲蓄以備不時之需</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>依賴政府救濟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第１個選項。
-出處：2.1 人身保險的意義、起源與發展
-人身保險就是：千千萬萬的人，大家出極少數的錢，交由壽險公司彙集成為龐大財力，作妥善的管理與運用，一旦有人發生不幸或約定的情況時，根據公平合理制度，給，給予所需的補償，保障他本人或他的眷屬安樂的生活，所發揮的保障力量不就會更大、更有效了。</t>
-  </si>
-  <si>
-    <t>PA12_53</t>
-  </si>
-  <si>
-    <t>有關人身保險的敘述，下列何者錯誤？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">是一種多數人合作，以分散風險、消化損失的制度 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">*所謂生命表，是利用收支相等原則統計出來的死亡率表 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首先根據生命表計算保險費的是英國倫敦的「衡平保險社」</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已發展成兼具保險保障與理財投資功能的工具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第２個選項。
-出處：2.1 人身保險的意義、起源與發展
-所謂生命表，就是利用大數法則（通常採用10萬人為統計對象），統計出來的死亡率表。</t>
-  </si>
-  <si>
-    <t>PA12_54</t>
-  </si>
-  <si>
-    <t>有關人壽保險生命表之敘述何者正確？A.生命表又稱為死亡率表；B.生命表係利用收支平等原則統計出來的；C.生命表作為人壽保險計算純保賣的根據；D.最早依據生命表科學計算保險費的機構是英國倫敦的衡平保險社。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第３個選項。
-出處：2.1 人身保險的意義、起源與發展
-所謂生命表，就是利用大數法則（通常採用10萬人為統計對象），統計出來的死亡率表。</t>
-  </si>
-  <si>
-    <t>PA12_55</t>
-  </si>
-  <si>
-    <t>人身保險對個人的功能有那些？A.安定就業、穩定發展；B.享受優惠、稅捐減免；C.保險理財，一舉兩得；D.鼓勵儲蓄，平均財富。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第２個選項。
-出處：2.2 人身保險的功能
-人身保險對社會的功能：
-1.互助共濟、社會安寧。
-2.鼓勵儲蓄、平均財富。
-3.促進教育、提高素質。
-4.大眾理財、豐富多元。
-鼓勵儲蓄，平均財富為人身保險對社會的功能。
-</t>
-  </si>
-  <si>
-    <t>PA12_56</t>
-  </si>
-  <si>
-    <t>下列有關投資型保險商品之敘述何者為非？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>對個人資金運用及退休計畫有幫助</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">*不可以解決保障需求的問題 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保戶擁有彈性繳費自主權</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保險費繳交方式具有高度彈性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第２個選項。
-出處：2.2 人身保險的功能
-投資型保險兼具保險保障與理財投資功能。保戶可以得到保險保障，還可借用專家理財，享有投資的功能以及資本增值的機會，有效對抗通貨膨脹。同時，保險費繳交方式具有高度彈性，保戶擁有彈性繳費的自主權，有助於個人資金運用以及個人退休計劃。</t>
-  </si>
-  <si>
-    <t>PA12_57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">隨著經濟發展自由化、國際化，現在保險有了新的演變 ，即以壽險商品為軸心，結合了下列何種特色？A.證券投資；B.資產管理；C.社會保險；D.政府公債。 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第１個選項。
-出處：2.1 人身保險的意義、起源與發展
-現在保險有了新一代的演變，以壽險商品為軸心，結合了證券投資與資產管理的特色，發展成為一種兼具保險保障與理財投資功能的工具。</t>
-  </si>
-  <si>
-    <t>PA12_58</t>
-  </si>
-  <si>
-    <t>企業為員工投保團體保險，並且負擔部分保險費，可以使員工的工作安定性增加，工作效率也自然提升，這是保險對個人的___功能。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保險理財、一舉兩得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>保證信用、有利投資</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>後顧無憂、晚景可待</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*安定就業、穩定發展</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正確答案為第４個選項。
-出處：2.2 人身保險的功能
-如果雇主能為員工投保團體保險或企業年金保險，並且負擔部份保險費的話，員工在服務滿一定年限後，便可領到一筆滿期給付或年金，服務年資愈長，給付也就愈多。這麼一來，員工基於現實利益的考慮，工作的安定性自然增加，工作效率也必會提高，所以不論就雇主或員工而言，人身保險都具有相當的功能。
-</t>
-  </si>
-  <si>
-    <t>PA12_59</t>
-  </si>
-  <si>
-    <t>下列何者對生命表敘述正確？A.又稱死亡生命表；B.生命表採收支相等原則；C.計算純保費的依據；D.早期英國倫敦衡平保險社計算保費的依據。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確答案為第４個選項。
-出處：2.1 人身保險的意義、起源與發展
-雖然我們不能預定某一個人在某一年內一定會身故的死亡機率，但是我們可以採取大樣本（通常採用10萬人為樣本），來統計過去死亡的機率，得出一個預定的死亡率，列表作為人壽保險計算純保費的根據。亦即，生命表係利用大數法則，統計出來的死亡率表。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4262,15 +2894,8 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4280,12 +2905,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4332,7 +2951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4389,18 +3008,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4738,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D466DC-79C0-EC41-A26D-676B4BA67645}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -7469,1471 +6076,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED7AF0E-76D7-A841-B990-F216D8F22D7A}">
-  <dimension ref="A1:H60"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="41.1640625" style="18" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="41.1640625" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="126">
-      <c r="A2" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>674</v>
-      </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="126">
-      <c r="A3" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="126">
-      <c r="A4" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="154">
-      <c r="A5" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>693</v>
-      </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="56">
-      <c r="A6" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>700</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="56">
-      <c r="A7" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>707</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="70">
-      <c r="A8" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>714</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="56">
-      <c r="A9" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>716</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="56">
-      <c r="A10" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>727</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" s="22" customFormat="1" ht="56">
-      <c r="A11" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>734</v>
-      </c>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" s="22" customFormat="1" ht="70">
-      <c r="A12" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>741</v>
-      </c>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" ht="70">
-      <c r="A13" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>748</v>
-      </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" ht="70">
-      <c r="A14" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>755</v>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="70">
-      <c r="A15" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>762</v>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="70">
-      <c r="A16" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>767</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="93.25" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>773</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="112">
-      <c r="A18" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="112">
-      <c r="A19" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>784</v>
-      </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" ht="70">
-      <c r="A20" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>791</v>
-      </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" ht="84">
-      <c r="A21" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" s="15" customFormat="1" ht="84">
-      <c r="A22" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" ht="84.25" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>810</v>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="112">
-      <c r="A24" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>814</v>
-      </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" ht="70">
-      <c r="A25" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>819</v>
-      </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="84">
-      <c r="A26" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>825</v>
-      </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="70">
-      <c r="A27" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>832</v>
-      </c>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" ht="70">
-      <c r="A28" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>839</v>
-      </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" ht="84">
-      <c r="A29" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>844</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>846</v>
-      </c>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" ht="112">
-      <c r="A30" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" ht="112">
-      <c r="A31" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" ht="70">
-      <c r="A32" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" ht="84">
-      <c r="A33" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>863</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" ht="112">
-      <c r="A34" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" ht="98">
-      <c r="A35" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" ht="112">
-      <c r="A36" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" ht="70">
-      <c r="A37" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" ht="84">
-      <c r="A38" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>894</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>895</v>
-      </c>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" ht="70">
-      <c r="A39" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>898</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>899</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>900</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>901</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>902</v>
-      </c>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" ht="126">
-      <c r="A40" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>905</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>906</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>907</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>908</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8" ht="112">
-      <c r="A41" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:8" ht="112">
-      <c r="A42" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>914</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>915</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>916</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>917</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>918</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" ht="70">
-      <c r="A43" s="5" t="s">
-        <v>920</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>921</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>923</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>924</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>925</v>
-      </c>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8" ht="140">
-      <c r="A44" s="5" t="s">
-        <v>926</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>928</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>929</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>930</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>931</v>
-      </c>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8" ht="154">
-      <c r="A45" s="5" t="s">
-        <v>932</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>934</v>
-      </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" ht="154">
-      <c r="A46" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>936</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>938</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>939</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>940</v>
-      </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" ht="140">
-      <c r="A47" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>942</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>943</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>944</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>945</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>946</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>947</v>
-      </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" ht="126">
-      <c r="A48" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>949</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>950</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>951</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>952</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>953</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>954</v>
-      </c>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" ht="84">
-      <c r="A49" s="5" t="s">
-        <v>955</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>956</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>958</v>
-      </c>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" ht="84">
-      <c r="A50" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>960</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>961</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>962</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>963</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>964</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>965</v>
-      </c>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" ht="112">
-      <c r="A51" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>968</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>885</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>969</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>970</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>971</v>
-      </c>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" ht="140">
-      <c r="A52" s="5" t="s">
-        <v>972</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>691</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>974</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>975</v>
-      </c>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" ht="98">
-      <c r="A53" s="5" t="s">
-        <v>976</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>977</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>978</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>979</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>980</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>981</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>982</v>
-      </c>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" ht="56">
-      <c r="A54" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>984</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>985</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>986</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>987</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>988</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>989</v>
-      </c>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" ht="70">
-      <c r="A55" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>991</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>957</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" ht="126">
-      <c r="A56" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>995</v>
-      </c>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8" ht="98">
-      <c r="A57" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>997</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>998</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8" ht="70">
-      <c r="A58" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" ht="126">
-      <c r="A59" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8" ht="98">
-      <c r="A60" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H60" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>